--- a/Product Backlog/Product Backlog - MorumByte.xlsx
+++ b/Product Backlog/Product Backlog - MorumByte.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanr\Documents\GIT\MorumBit\Product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanr\Documents\GIT\MorumByte\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D95526-4C9F-490B-8191-8FF34FB1DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5745C-4F6C-4C89-9374-D7E3D6105E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8726E2A-0C03-44E9-843D-7D8F8FD916AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Nº</t>
   </si>
@@ -67,13 +67,256 @@
   </si>
   <si>
     <t>PRODUCT BACKLOG - MorumByte</t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Criação dos scripts para criação das tabelas e seus campos, onde estarão armazenados os dados do site.</t>
+  </si>
+  <si>
+    <t>Banco de dados dentro da VM</t>
+  </si>
+  <si>
+    <t>Consultas banco de dados</t>
+  </si>
+  <si>
+    <t>Criação de scripts de consulta do banco de dados para poder exibir diferentes informações no site (Exemplo: média de acertos no quiz).</t>
+  </si>
+  <si>
+    <t>API (web-data-viz)</t>
+  </si>
+  <si>
+    <t>Integrar o site na API e realizar as configurações necessárias para que seja 
+possível consultar os dados do banco de dados no site.</t>
+  </si>
+  <si>
+    <t>Aplicar e configurar dentro da máquina virtual (VM) o banco de dados do site.</t>
+  </si>
+  <si>
+    <t>Aplicação de cálculos matemáticos</t>
+  </si>
+  <si>
+    <t>Aplicar conceitos de algoritmos</t>
+  </si>
+  <si>
+    <t>Incluir no site a utilização de cálculos matemáticos (Exemplo: Dashboard).</t>
+  </si>
+  <si>
+    <t>Incluir no site os conceitos de algoritmos (Variáveis, Funções, Condições, 
+Repetições, Vetores e Operações Matemáticas).</t>
+  </si>
+  <si>
+    <t>Página de Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página na qual o usuário fará o login no sistema. Ao realizar o login, o 
+usuário será redirecionado para uma página onde ele terá acesso ao seu Perfil, ao Quiz e a Dashboard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card Login </t>
+  </si>
+  <si>
+    <t>Página de Cadastro</t>
+  </si>
+  <si>
+    <t>Card Cadastro</t>
+  </si>
+  <si>
+    <t>Página na qual o usuário irá cadastrar seus dados no banco de dados do sistema. Ao preencher os campos com seus dados e efetuar o cadastro, o usuário é redirecionado novamente para página de login.</t>
+  </si>
+  <si>
+    <t>Onde o usuário vai fazer o seu login de fato, adicionando suas credenciais nos campos "E-mail" e "Senha". Esse card ainda possuirá um botão que leva o usuário para a página de cadastro, e outro que efetua o login e leva para a página onde estará seu Perfil, Quiz e Dashboard.</t>
+  </si>
+  <si>
+    <t>Onde o usuário vai realizar seu cadastro, preenchendo os campos com suas 
+informações (Nome/Username, Data de nascimento, E-mail, Senha e Confirmação de senha). Esse card possuirá um botão de Cadastro que irá registrar as informações do usuário no banco de dados.</t>
+  </si>
+  <si>
+    <t>Barra de navegação</t>
+  </si>
+  <si>
+    <t>Vai conter a logotipo do site, além dos botões que irão redirecionar o usuário para as páginas (Home, Clube, Sobre mim e Login). Essa barra de navegação estará presente em todas as páginas citadas aqui anteriormente.</t>
+  </si>
+  <si>
+    <t>Página Home</t>
+  </si>
+  <si>
+    <t>Página contendo um carrossel de imagens, um breve resumo sobre a história 
+do clube e sobre a minha história.</t>
+  </si>
+  <si>
+    <t>Carrosel de imagens (Página Home)</t>
+  </si>
+  <si>
+    <t>Carrosel visualizável logo ao entrar na Home, contendo 5 imagens referentes
+ao São Paulo Futebol Clube sendo exibidas a cada 3-4 segundos.</t>
+  </si>
+  <si>
+    <t>Página Clube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página contendo a História do clube, detalhes sobre a Identidade visual, Títulos
+e conquistas do clube, informações sobre a Torcida e a cultura tricolor, Ídolos e talentos do clube e detalhes sobre a Estrutura e patrimônio do clube. </t>
+  </si>
+  <si>
+    <t>Seção Sobre mim (Página Home)</t>
+  </si>
+  <si>
+    <t>Seção Clube (Página Home)</t>
+  </si>
+  <si>
+    <t>Seção contendo um breve resumo sobre o São Paulo Futebol Clube. 
+Além disso, possui um botão que redireciona o usuário para a página "Clube".</t>
+  </si>
+  <si>
+    <t>Seção contendo um breve resumo sobre minha história e minha relação com o
+clube. Além disso, possui um botão que redireciona o usuário para a página "Sobre mim".</t>
+  </si>
+  <si>
+    <t>Seção História do Clube 
+(Página Clube)</t>
+  </si>
+  <si>
+    <t>Seção contendo a história do São Paulo Futebol Clube, sua fundação, 
+desafios e jornada.</t>
+  </si>
+  <si>
+    <t>Seção Identidade Visual
+(Página Clube)</t>
+  </si>
+  <si>
+    <t>Seção contendo informações sobre a constituição e idealização do escudo do
+São Paulo Futebol Clube, especificando o motivo de cada elemento.</t>
+  </si>
+  <si>
+    <t>Seção Torcida e cultura tricolor
+(Página Clube)</t>
+  </si>
+  <si>
+    <t>Seção Títulos e conquistas 
+(Página Clube)</t>
+  </si>
+  <si>
+    <t>Seção contendo uma barra lateral para filtrar quais títulos estão sendo exibidos. Além disso, contêm um card exibindo os títulos com uma imagem do troféu, seguida do ano em que ele foi conquistado. Esse card ainda possuí uma função de rolagem de página para visualizar os títulos.</t>
+  </si>
+  <si>
+    <t>Seção contendo detalhes sobre a torcida do São Paulo Futebol Clube, sobre
+sua tradição, importância e representatividade no meio futebolístico.</t>
+  </si>
+  <si>
+    <t>Seção Ídolos e Talentos
+(Página Clube)</t>
+  </si>
+  <si>
+    <t>Seção contendo um card exibindo alguns dos ídolos e talentos revelados pelo 
+São Paulo Futebol Clube. Em cada card de cada jogador é exibido seu nome e a posição em que jogava e/ou ainda joga.</t>
+  </si>
+  <si>
+    <t>Seção Estrutura e Patrimônio
+(Página Clube)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seção contendo detalhes sobre as estruturas que o São Paulo Futebol Clube 
+possui, além de sua importância, como o Estádio do Morumbis e os Centros de treinamento. </t>
+  </si>
+  <si>
+    <t>Página Sobre mim</t>
+  </si>
+  <si>
+    <t>Página contendo a história sobre minha relação o clube, separado em uma ordem cronológica, até os dias atuais. Cada seção dessa página contêm cards contando um pouco sobre minha trajetória com o clube. A seção final ressalta como o clube faz parte da minha identidade.</t>
+  </si>
+  <si>
+    <t>Página Perfil</t>
+  </si>
+  <si>
+    <t>Página contendo as informações do usuário após fazer login e acessar a parte
+funcional do site. Essa página contêm os dados que o usuário inseriu em seu cadastro, além de um botão para poder atualizar esses dados.</t>
+  </si>
+  <si>
+    <t>Página contendo o quiz, no qual o usuário primeiro se depara com uma 
+tela inicial, contendo uma introdução e um botão para realmente iniciar o quiz.</t>
+  </si>
+  <si>
+    <t>Página Quiz</t>
+  </si>
+  <si>
+    <t>Tela questões do quiz
+(Página Quiz)</t>
+  </si>
+  <si>
+    <t>Tela contendo as questões do quiz, referenciando qual a questão atual sendo 
+respondida, juntamente com suas alternativas. Além disso, essa tabela possui um botão para confirmar a resposta e outro para prosseguir para a próxima questão. A última questão possui um botão para finalizar o quiz.</t>
+  </si>
+  <si>
+    <t>Página Dashboard</t>
+  </si>
+  <si>
+    <t>Página contendo um gráfico de barra de Desempenho dos últimos 10 usuários, junto com outro de Taxa geral de acertos dos usuários por questão; Card informando a Taxa média de acertos; Nº de usuários diferentes que responderam o quis; Questão com maior % de Acertos e Erros.</t>
+  </si>
+  <si>
+    <t>Tela Atualizar Dados
+(Página Perfil)</t>
+  </si>
+  <si>
+    <t>Tela onde o usuário vai poder atualizar seus dados, como Nome/Username, Data de Nascimento, E-mail e Senha. Essa tela vai conter um botão "Atualizar" que vai sobreescrever os dados antigos do usuário pelos dados novos.</t>
+  </si>
+  <si>
+    <t>Tela Resultado do quiz 
+(Página Quiz)</t>
+  </si>
+  <si>
+    <t>Tela contendo os resultados obtidos no quiz, informando a quantidade de 
+acertos e erros do usuário, seguido de uma mensagem que vai mudar com base no desempenho do usuário.</t>
+  </si>
+  <si>
+    <t>Footer (rodapé)</t>
+  </si>
+  <si>
+    <t>Footer com as informações de copyright do site, aplicado nas páginas da parte
+institucional do site (Home, Clube e Sobre mim).</t>
+  </si>
+  <si>
+    <t>Responsividade</t>
+  </si>
+  <si>
+    <t>Aplicar responsividade no site, para que ele atenda a diferentes tamanhos de 
+telas de computadores.</t>
+  </si>
+  <si>
+    <t>Verificação de Login</t>
+  </si>
+  <si>
+    <t>Função para validar se os dados que o usuário digitou correspondem a algum 
+dado salvo no banco de dados do site.</t>
+  </si>
+  <si>
+    <t>Verificação de Cadastro</t>
+  </si>
+  <si>
+    <t>Função para validar se os dados que o usuário inseriu estão de acordo com os
+requisitos para realização do cadastro.</t>
+  </si>
+  <si>
+    <t>Alerta de falha no cadastro</t>
+  </si>
+  <si>
+    <t>Função para alertar quando o usuário inserir alguma informação inválida no 
+cadastro.</t>
+  </si>
+  <si>
+    <t>Alerta de falha no login</t>
+  </si>
+  <si>
+    <t>Função para alertar quando o usuário digitar dados que não correspondem a
+dados salvos no banco de dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,14 +338,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -134,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,102 +408,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -272,59 +425,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -338,25 +485,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -365,27 +500,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -394,27 +515,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -423,27 +530,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -452,27 +545,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -481,27 +560,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -510,27 +575,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -539,25 +590,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -582,7 +621,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -597,7 +636,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <family val="2"/>
@@ -615,10 +654,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3737"/>
       <color rgb="FFC31F17"/>
       <color rgb="FFD00000"/>
       <color rgb="FF960000"/>
-      <color rgb="FFFF3737"/>
       <color rgb="FFFF9B9B"/>
     </mruColors>
   </colors>
@@ -634,7 +673,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD658527-F84D-4B86-8092-55E82BAA1BF4}" name="Tabela2" displayName="Tabela2" ref="C6:J24" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD658527-F84D-4B86-8092-55E82BAA1BF4}" name="Tabela2" displayName="Tabela2" ref="C10:J45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0511EB12-3CC2-4C21-9082-E34484A2C207}" name="Nº" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{DC812239-49D3-4532-BADA-C29B2E9D97E7}" name="Requisitos" dataDxfId="6"/>
@@ -946,282 +985,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DC9970-5FA2-4D2C-A477-0542CEE05661}">
-  <dimension ref="C3:M24"/>
+  <dimension ref="C4:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
     <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="63.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="10" width="11.77734375" customWidth="1"/>
+    <col min="5" max="5" width="80.77734375" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
     <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C3" s="18" t="s">
+    <row r="4" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="6"/>
+    </row>
+    <row r="5" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="3:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="3:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="14"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="6"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="7"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="6"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="7"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C11" s="6"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="7"/>
-      <c r="L11" s="16" t="s">
+      <c r="J8" s="2"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="7"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="7"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="6"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="6"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="7"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="6"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="7"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="10"/>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="10"/>
+      <c r="D15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="10"/>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="10"/>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="10"/>
+      <c r="D19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="10"/>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="D21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="10"/>
+      <c r="D23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="10"/>
+      <c r="D26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="10"/>
+      <c r="D33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="3:10" s="16" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="10"/>
+      <c r="D36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="10"/>
+      <c r="D39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="10"/>
+      <c r="D40" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J44" s="10"/>
+    </row>
+    <row r="45" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:J4"/>
+    <mergeCell ref="C7:J8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Product Backlog/Product Backlog - MorumByte.xlsx
+++ b/Product Backlog/Product Backlog - MorumByte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanr\Documents\GIT\MorumByte\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D5745C-4F6C-4C89-9374-D7E3D6105E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD8E87-5541-41A7-B7CD-C9204BF1C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8726E2A-0C03-44E9-843D-7D8F8FD916AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
   <si>
     <t>Nº</t>
   </si>
@@ -310,13 +310,32 @@
   <si>
     <t>Função para alertar quando o usuário digitar dados que não correspondem a
 dados salvos no banco de dados</t>
+  </si>
+  <si>
+    <t>Prototipagem do site</t>
+  </si>
+  <si>
+    <t>Design completo do site, desde a parte institucional até a parte funcional 
+(Quis, Dashboard).</t>
+  </si>
+  <si>
+    <t>Essencial</t>
+  </si>
+  <si>
+    <t>Importante</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Essencial</t>
+  </si>
+  <si>
+    <t>Desejável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,6 +372,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -425,52 +451,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,51 +524,7 @@
   <dxfs count="11">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -570,6 +570,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -582,6 +599,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -673,16 +720,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD658527-F84D-4B86-8092-55E82BAA1BF4}" name="Tabela2" displayName="Tabela2" ref="C10:J45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD658527-F84D-4B86-8092-55E82BAA1BF4}" name="Tabela2" displayName="Tabela2" ref="C10:J46" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0511EB12-3CC2-4C21-9082-E34484A2C207}" name="Nº" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DC812239-49D3-4532-BADA-C29B2E9D97E7}" name="Requisitos" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{DA9D9EDB-AE02-4820-A9BB-E4D99EC43748}" name=" Descrição" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{0BB06448-83F6-4B81-AB3C-9F6118E25B7E}" name=" Classificação" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C2258953-CA3A-4D3F-9A2F-63BF385276F0}" name="Tamanho" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7EE4BA1F-0742-4027-8F50-977929B6A942}" name=" Tam (#)" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{F3B08DFA-B4B2-475C-9968-F458300DAF18}" name=" Prioridade" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5290F820-6BEE-473A-B375-64C13757AE85}" name="Sprint" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{0511EB12-3CC2-4C21-9082-E34484A2C207}" name="Nº" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC812239-49D3-4532-BADA-C29B2E9D97E7}" name="Requisitos" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DA9D9EDB-AE02-4820-A9BB-E4D99EC43748}" name=" Descrição" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{0BB06448-83F6-4B81-AB3C-9F6118E25B7E}" name=" Classificação" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{C2258953-CA3A-4D3F-9A2F-63BF385276F0}" name="Tamanho" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7EE4BA1F-0742-4027-8F50-977929B6A942}" name=" Tam (#)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{F3B08DFA-B4B2-475C-9968-F458300DAF18}" name=" Prioridade" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{5290F820-6BEE-473A-B375-64C13757AE85}" name="Sprint" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -985,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DC9970-5FA2-4D2C-A477-0542CEE05661}">
-  <dimension ref="C4:M45"/>
+  <dimension ref="C4:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,44 +1053,44 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
     </row>
     <row r="6" spans="3:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
     </row>
     <row r="8" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
@@ -1054,471 +1101,577 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="9"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="F11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="10"/>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="F12" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="F13" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="F14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="10"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="F15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="F16" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="10"/>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="F17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="10"/>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="F18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="10"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="F19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="F20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="10"/>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="F21" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="10"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="10"/>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="15" t="s">
+      <c r="F23" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="21"/>
+      <c r="D24" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="15" t="s">
+      <c r="F24" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="21"/>
+      <c r="D25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>42</v>
       </c>
+      <c r="F25" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="26" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="10"/>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="15" t="s">
+      <c r="F26" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="21"/>
+      <c r="D27" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>44</v>
       </c>
+      <c r="F27" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="10"/>
-      <c r="D28" s="11" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="F28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="10"/>
-      <c r="D29" s="11" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="F29" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="10"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="F32" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="10"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="F33" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="10"/>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="3:10" s="16" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="15" t="s">
+      <c r="F34" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="3:10" s="14" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="22"/>
+      <c r="D35" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="13" t="s">
         <v>66</v>
       </c>
+      <c r="F35" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="36" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="F36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="10"/>
-      <c r="D37" s="11" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="15" t="s">
+      <c r="F37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="21"/>
+      <c r="D38" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="13" t="s">
         <v>68</v>
       </c>
+      <c r="F38" s="21" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="3:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="F39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="10"/>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D41" s="14" t="s">
+      <c r="F40" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="21"/>
+      <c r="D41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="14" t="s">
+      <c r="F41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="21"/>
+      <c r="D42" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="14" t="s">
+      <c r="F42" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="21"/>
+      <c r="D43" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J43" s="10"/>
-    </row>
-    <row r="44" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="14" t="s">
+      <c r="F43" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="21"/>
+      <c r="D44" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J44" s="10"/>
-    </row>
-    <row r="45" spans="3:10" s="13" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="14" t="s">
+      <c r="F44" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="21"/>
+      <c r="D45" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="J45" s="10"/>
+      <c r="F45" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="21"/>
+      <c r="D46" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Product Backlog/Product Backlog - MorumByte.xlsx
+++ b/Product Backlog/Product Backlog - MorumByte.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanr\Documents\GIT\MorumByte\Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD8E87-5541-41A7-B7CD-C9204BF1C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0573325-2AE8-45D8-86A8-EFAEDFA57655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D8726E2A-0C03-44E9-843D-7D8F8FD916AD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="133">
   <si>
     <t>Nº</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>Média</t>
   </si>
   <si>
     <t>PRODUCT BACKLOG - MorumByte</t>
@@ -149,10 +146,6 @@
     <t>Carrosel de imagens (Página Home)</t>
   </si>
   <si>
-    <t>Carrosel visualizável logo ao entrar na Home, contendo 5 imagens referentes
-ao São Paulo Futebol Clube sendo exibidas a cada 3-4 segundos.</t>
-  </si>
-  <si>
     <t>Página Clube</t>
   </si>
   <si>
@@ -329,13 +322,157 @@
   </si>
   <si>
     <t>Desejável</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GG</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>RNF01</t>
+  </si>
+  <si>
+    <t>RNF02</t>
+  </si>
+  <si>
+    <t>RNF03</t>
+  </si>
+  <si>
+    <t>RF01</t>
+  </si>
+  <si>
+    <t>RF02</t>
+  </si>
+  <si>
+    <t>RF03</t>
+  </si>
+  <si>
+    <t>RF05</t>
+  </si>
+  <si>
+    <t>RF04</t>
+  </si>
+  <si>
+    <t>RF06</t>
+  </si>
+  <si>
+    <t>RF07</t>
+  </si>
+  <si>
+    <t>RF08</t>
+  </si>
+  <si>
+    <t>RF09</t>
+  </si>
+  <si>
+    <t>RF10</t>
+  </si>
+  <si>
+    <t>RF11</t>
+  </si>
+  <si>
+    <t>RF12</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>RF14</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>RF17</t>
+  </si>
+  <si>
+    <t>RF18</t>
+  </si>
+  <si>
+    <t>RF19</t>
+  </si>
+  <si>
+    <t>RF20</t>
+  </si>
+  <si>
+    <t>RF21</t>
+  </si>
+  <si>
+    <t>RF22</t>
+  </si>
+  <si>
+    <t>RF23</t>
+  </si>
+  <si>
+    <t>RF24</t>
+  </si>
+  <si>
+    <t>RF25</t>
+  </si>
+  <si>
+    <t>RF26</t>
+  </si>
+  <si>
+    <t>RF27</t>
+  </si>
+  <si>
+    <t>RF28</t>
+  </si>
+  <si>
+    <t>RF29</t>
+  </si>
+  <si>
+    <t>RF30</t>
+  </si>
+  <si>
+    <t>RF31</t>
+  </si>
+  <si>
+    <t>RF32</t>
+  </si>
+  <si>
+    <t>RF33</t>
+  </si>
+  <si>
+    <t>Carrosel visualizável logo ao entrar na Home, contendo 5 imagens referentes ao São Paulo Futebol Clube sendo exibidas a cada 3-4 segundos.</t>
+  </si>
+  <si>
+    <t>Sprint A</t>
+  </si>
+  <si>
+    <t>Sprint B</t>
+  </si>
+  <si>
+    <t>Sprint C</t>
+  </si>
+  <si>
+    <t>Sprint D</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprint B</t>
+  </si>
+  <si>
+    <t>Sprints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,8 +519,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC31F17"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -466,9 +630,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,35 +654,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -540,6 +752,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -582,56 +811,11 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -720,16 +904,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AD658527-F84D-4B86-8092-55E82BAA1BF4}" name="Tabela2" displayName="Tabela2" ref="C10:J46" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1FC39452-F937-4E77-A6B1-1E730C7B3FB6}" name="Tabela24" displayName="Tabela24" ref="C9:J45" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{0511EB12-3CC2-4C21-9082-E34484A2C207}" name="Nº" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DC812239-49D3-4532-BADA-C29B2E9D97E7}" name="Requisitos" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{DA9D9EDB-AE02-4820-A9BB-E4D99EC43748}" name=" Descrição" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{0BB06448-83F6-4B81-AB3C-9F6118E25B7E}" name=" Classificação" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{C2258953-CA3A-4D3F-9A2F-63BF385276F0}" name="Tamanho" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7EE4BA1F-0742-4027-8F50-977929B6A942}" name=" Tam (#)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{F3B08DFA-B4B2-475C-9968-F458300DAF18}" name=" Prioridade" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{5290F820-6BEE-473A-B375-64C13757AE85}" name="Sprint" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D6DEBC58-FEC7-494B-B7C9-CEE0D0B69081}" name="Nº" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{125BADF3-04E3-41FF-806B-2E55B4E29674}" name="Requisitos" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E2E41773-BE25-4F75-843B-1486C8DF4B4D}" name=" Descrição" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{FE5F44D2-5935-44D0-B979-FB743EE0F6BF}" name=" Classificação" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{56E1B4F7-F431-4855-BEB5-E0349142EA44}" name="Tamanho" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{EDA64275-F336-4995-BFF2-694E32F9F15E}" name=" Tam (#)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2DE8F216-B3EE-4520-BC89-5146273CCCA9}" name=" Prioridade" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F9B83E2C-FC2F-44D1-AD28-71CCE4ECEB5C}" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1031,656 +1215,1112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DC9970-5FA2-4D2C-A477-0542CEE05661}">
-  <dimension ref="C4:M46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C772FB20-4AC6-4EDB-A611-5EB97141BE7C}">
+  <dimension ref="B3:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
-    <col min="5" max="5" width="80.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" customWidth="1"/>
+    <col min="5" max="5" width="91" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" customWidth="1"/>
+    <col min="7" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L4" s="4" t="s">
+    <row r="3" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="27">
+        <f>SUMIF(Tabela24[[#All],[Sprint]], "Sprint A",Tabela24[[#All],[Tamanho]])</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" s="27">
+        <f>SUMIF(Tabela24[[#All],[Sprint]], "Sprint B",Tabela24[[#All],[Tamanho]])</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="L6" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="M6" s="27">
+        <f>SUMIF(Tabela24[[#All],[Sprint]], "Sprint C",Tabela24[[#All],[Tamanho]])</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="L7" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="27">
+        <f>SUMIF(Tabela24[[#All],[Sprint]], "Sprint D",Tabela24[[#All],[Tamanho]])</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="3:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
+      <c r="M8" s="7">
+        <f>SUM(M4:M7)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="15" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="3:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="L9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="3:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="18">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="J10" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="18">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="H11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="18">
+        <v>5</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="8">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="19">
+        <v>21</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="18">
         <v>3</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="20"/>
-      <c r="D11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="20"/>
-      <c r="D12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="20"/>
-      <c r="D13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="21"/>
-      <c r="D14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="H14" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="15" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="20"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+        <v>81</v>
+      </c>
+      <c r="G15" s="18">
+        <v>5</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" spans="3:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="20"/>
-      <c r="D16" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>22</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="20"/>
-      <c r="D17" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="G16" s="18">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>24</v>
       </c>
+      <c r="E17" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="F17" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="18">
+        <v>2</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="18">
+        <v>5</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="20"/>
-      <c r="D18" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="20"/>
-      <c r="D19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="F19" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="20"/>
-      <c r="D20" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="18">
+        <v>2</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="20"/>
-      <c r="D21" s="17" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="18">
+        <v>2</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="18">
+        <v>8</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="20"/>
-      <c r="D22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="20" t="s">
+      <c r="G22" s="18">
+        <v>5</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="18">
+        <v>13</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I25" s="8">
+        <v>2</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="19">
+        <v>2</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" s="11">
+        <v>2</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="18">
+        <v>2</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="18">
+        <v>5</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="18">
+        <v>2</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="18">
+        <v>5</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="18">
+        <v>2</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="8">
+        <v>2</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="18">
+        <v>8</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="18">
+        <v>5</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="20"/>
-      <c r="D23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="20" t="s">
+      <c r="G34" s="19">
+        <v>3</v>
+      </c>
+      <c r="H34" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="21"/>
-      <c r="D24" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="21" t="s">
+      <c r="I34" s="11">
+        <v>3</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="18">
+        <v>8</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="18">
+        <v>8</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="8">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="11"/>
+      <c r="C37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="19">
+        <v>3</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="18">
+        <v>13</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="21"/>
-      <c r="D25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F25" s="21" t="s">
+      <c r="G39" s="18">
+        <v>2</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="8">
+        <v>3</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+      <c r="C40" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="20"/>
-      <c r="D26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="21"/>
-      <c r="D27" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="20"/>
-      <c r="D28" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="20"/>
-      <c r="D29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="20"/>
-      <c r="D30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="20"/>
-      <c r="D31" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="20"/>
-      <c r="D32" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="20"/>
-      <c r="D33" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="20"/>
-      <c r="D34" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="3:10" s="14" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="22"/>
-      <c r="D35" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="G40" s="19">
+        <v>13</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="11">
+        <v>3</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="19">
+        <v>8</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="11">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="19">
+        <v>8</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11"/>
+      <c r="C43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="19">
+        <v>5</v>
+      </c>
+      <c r="H43" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="20"/>
-      <c r="D36" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="20"/>
-      <c r="D37" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="21"/>
-      <c r="D38" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="20"/>
-      <c r="D39" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="20"/>
-      <c r="D40" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="20" t="s">
+      <c r="I43" s="11">
+        <v>2</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="19">
+        <v>5</v>
+      </c>
+      <c r="H44" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="21"/>
-      <c r="D41" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="21"/>
-      <c r="D42" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="J42" s="9"/>
-    </row>
-    <row r="43" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="21"/>
-      <c r="D43" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="J43" s="9"/>
-    </row>
-    <row r="44" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="21"/>
-      <c r="D44" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="3:10" s="12" customFormat="1" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="21"/>
-      <c r="D45" s="18" t="s">
+      <c r="I44" s="11">
+        <v>2</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="2:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>80</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="3:10" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="21"/>
-      <c r="D46" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="9"/>
+      <c r="G45" s="19">
+        <v>21</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C7:J8"/>
+    <mergeCell ref="C6:J7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>